--- a/instances/description.xlsx
+++ b/instances/description.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cnrsc-my.sharepoint.com/personal/giuseppe_stecca_cnr_it/Documents/IASI/Research/2024/StochasticWasteCollection/code/instances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{D115C4F0-F144-416F-87BB-2F17AF5B85AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5D69898-A8B7-486C-B89B-A04C3437CCA2}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{D115C4F0-F144-416F-87BB-2F17AF5B85AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53B6BEF8-A75F-4CA6-98C3-06D06AD0B7AD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B8E7D403-B7B9-4B1A-BBDE-FF9EDC133697}"/>
+    <workbookView xWindow="444" yWindow="2088" windowWidth="17280" windowHeight="9960" xr2:uid="{B8E7D403-B7B9-4B1A-BBDE-FF9EDC133697}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>I1_S1</t>
   </si>
   <si>
     <t>I1_s2</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>descrizione</t>
+  </si>
+  <si>
+    <t>I1_S4</t>
+  </si>
+  <si>
+    <t>3 timeslots, 5 scenari, 10 nodi casuali, domanda e delta estremamente variabili</t>
+  </si>
+  <si>
+    <t>I1_S5</t>
+  </si>
+  <si>
+    <t>come S4 ma aumento penalità per ultimo termine</t>
   </si>
 </sst>
 </file>
@@ -94,6 +112,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,22 +435,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5879FB5A-3DED-49B7-B8D0-3A1A743377ED}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/instances/description.xlsx
+++ b/instances/description.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cnrsc-my.sharepoint.com/personal/giuseppe_stecca_cnr_it/Documents/IASI/Research/2024/StochasticWasteCollection/code/instances/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\wm-stochastic\instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{D115C4F0-F144-416F-87BB-2F17AF5B85AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53B6BEF8-A75F-4CA6-98C3-06D06AD0B7AD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B1DB8D-B981-47A7-B026-95AF4036B60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="444" yWindow="2088" windowWidth="17280" windowHeight="9960" xr2:uid="{B8E7D403-B7B9-4B1A-BBDE-FF9EDC133697}"/>
+    <workbookView xWindow="3360" yWindow="2085" windowWidth="21600" windowHeight="11385" xr2:uid="{B8E7D403-B7B9-4B1A-BBDE-FF9EDC133697}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>I1_S1</t>
   </si>
@@ -59,7 +59,13 @@
     <t>I1_S5</t>
   </si>
   <si>
-    <t>come S4 ma aumento penalità per ultimo termine</t>
+    <t>alta capacità bassa domanda</t>
+  </si>
+  <si>
+    <t>I1_S6</t>
+  </si>
+  <si>
+    <t>rispetto alla precedente capacità a 100 e timeslots di durata 10</t>
   </si>
 </sst>
 </file>
@@ -112,10 +118,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,15 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5879FB5A-3DED-49B7-B8D0-3A1A743377ED}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -451,17 +453,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -469,12 +471,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/instances/description.xlsx
+++ b/instances/description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\wm-stochastic\instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B1DB8D-B981-47A7-B026-95AF4036B60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E8135A-F1B9-4F14-993B-F3B00493108A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2085" windowWidth="21600" windowHeight="11385" xr2:uid="{B8E7D403-B7B9-4B1A-BBDE-FF9EDC133697}"/>
+    <workbookView xWindow="6135" yWindow="1695" windowWidth="21600" windowHeight="11385" xr2:uid="{B8E7D403-B7B9-4B1A-BBDE-FF9EDC133697}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>I1_S1</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>rispetto alla precedente capacità a 100 e timeslots di durata 10</t>
+  </si>
+  <si>
+    <t>I1_S7</t>
+  </si>
+  <si>
+    <t>rispetto alla precedente penalità 1</t>
+  </si>
+  <si>
+    <t>I1_S8</t>
+  </si>
+  <si>
+    <t>rispetto alla precedente penalità 5</t>
   </si>
 </sst>
 </file>
@@ -437,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5879FB5A-3DED-49B7-B8D0-3A1A743377ED}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,6 +499,22 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/instances/description.xlsx
+++ b/instances/description.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\wm-stochastic\instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STECCAGIUSEPPE\git\wm-stochastic\instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E8135A-F1B9-4F14-993B-F3B00493108A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1790F0-F728-4818-8263-A21EFEE369BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="1695" windowWidth="21600" windowHeight="11385" xr2:uid="{B8E7D403-B7B9-4B1A-BBDE-FF9EDC133697}"/>
+    <workbookView xWindow="2820" yWindow="1524" windowWidth="17280" windowHeight="9960" xr2:uid="{B8E7D403-B7B9-4B1A-BBDE-FF9EDC133697}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>I1_S1</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>rispetto alla precedente penalità 5</t>
+  </si>
+  <si>
+    <t>I1_R1</t>
+  </si>
+  <si>
+    <t>I1_R2</t>
+  </si>
+  <si>
+    <t>Reale (penalità 5)</t>
+  </si>
+  <si>
+    <t>Reale (penalità 20) + capacità 1000 + service time 120</t>
   </si>
 </sst>
 </file>
@@ -113,8 +125,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -449,15 +462,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5879FB5A-3DED-49B7-B8D0-3A1A743377ED}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -465,17 +478,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -483,7 +496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -491,7 +504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -499,7 +512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -507,13 +520,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/instances/description.xlsx
+++ b/instances/description.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STECCAGIUSEPPE\git\wm-stochastic\instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\wm-stochastic\instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1790F0-F728-4818-8263-A21EFEE369BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3627B8A2-ADBC-4BDE-8EF1-A7F0B92247AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="1524" windowWidth="17280" windowHeight="9960" xr2:uid="{B8E7D403-B7B9-4B1A-BBDE-FF9EDC133697}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8E7D403-B7B9-4B1A-BBDE-FF9EDC133697}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>I1_S1</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>Reale (penalità 20) + capacità 1000 + service time 120</t>
+  </si>
+  <si>
+    <t>I2_S2_0</t>
+  </si>
+  <si>
+    <t>I2_S1_0</t>
+  </si>
+  <si>
+    <t>5 clienti,  depot central, C=100, tmax 100, tw 15,30,45, D=50</t>
+  </si>
+  <si>
+    <t>5 clienti,  depot central, C=100, tmax 30, tw 10, 20, 30, D=50</t>
   </si>
 </sst>
 </file>
@@ -125,9 +137,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -462,15 +473,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5879FB5A-3DED-49B7-B8D0-3A1A743377ED}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -478,17 +489,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -496,7 +507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -504,7 +515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -512,7 +523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -520,7 +531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -528,7 +539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -536,7 +547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -544,8 +555,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
